--- a/Assets/_OriginalData/Excel/Config/Common/Prop.xlsx
+++ b/Assets/_OriginalData/Excel/Config/Common/Prop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26145" windowHeight="10440" tabRatio="530"/>
+    <workbookView windowWidth="24030" windowHeight="10440" tabRatio="530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1239,8 +1239,8 @@
   <sheetPr/>
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>

--- a/Assets/_OriginalData/Excel/Config/Common/Prop.xlsx
+++ b/Assets/_OriginalData/Excel/Config/Common/Prop.xlsx
@@ -197,40 +197,40 @@
     <t>icon_bus_2404</t>
   </si>
   <si>
-    <t>TripEraser</t>
-  </si>
-  <si>
-    <t>icon_trip_2501</t>
-  </si>
-  <si>
-    <t>Prop_TripEraser</t>
-  </si>
-  <si>
-    <t>TripRecall3</t>
-  </si>
-  <si>
-    <t>icon_trip_2502</t>
-  </si>
-  <si>
-    <t>Prop_TripRecall3</t>
-  </si>
-  <si>
-    <t>TripCompass</t>
-  </si>
-  <si>
-    <t>icon_trip_2503</t>
-  </si>
-  <si>
-    <t>Prop_TripCompass</t>
-  </si>
-  <si>
-    <t>TripHourglass</t>
-  </si>
-  <si>
-    <t>icon_trip_2504</t>
-  </si>
-  <si>
-    <t>Prop_TripHourglass</t>
+    <t>TripleEraser</t>
+  </si>
+  <si>
+    <t>icon_triple_2501</t>
+  </si>
+  <si>
+    <t>Prop_TripleEraser</t>
+  </si>
+  <si>
+    <t>TripleRecall3</t>
+  </si>
+  <si>
+    <t>icon_triple_2502</t>
+  </si>
+  <si>
+    <t>Prop_TripleRecall3</t>
+  </si>
+  <si>
+    <t>TripleCompass</t>
+  </si>
+  <si>
+    <t>icon_triple_2503</t>
+  </si>
+  <si>
+    <t>Prop_TripleCompass</t>
+  </si>
+  <si>
+    <t>TripleHourglass</t>
+  </si>
+  <si>
+    <t>icon_triple_2504</t>
+  </si>
+  <si>
+    <t>Prop_TripleHourglass</t>
   </si>
 </sst>
 </file>
@@ -1239,8 +1239,8 @@
   <sheetPr/>
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>

--- a/Assets/_OriginalData/Excel/Config/Common/Prop.xlsx
+++ b/Assets/_OriginalData/Excel/Config/Common/Prop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24030" windowHeight="10440" tabRatio="530"/>
+    <workbookView windowWidth="27945" windowHeight="12255" tabRatio="530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="70">
   <si>
     <t>ID</t>
   </si>
@@ -71,7 +71,7 @@
     <t>Energy</t>
   </si>
   <si>
-    <t>icon_energy</t>
+    <t>icon_heart</t>
   </si>
   <si>
     <t>Prop_Energy</t>
@@ -173,7 +173,7 @@
     <t>icon_bus_2401</t>
   </si>
   <si>
-    <t>Prop_ScrewExslot</t>
+    <t>Prop_BusCarshift</t>
   </si>
   <si>
     <t>BusChopper</t>
@@ -182,19 +182,25 @@
     <t>icon_bus_2402</t>
   </si>
   <si>
+    <t>Prop_BusChopper</t>
+  </si>
+  <si>
     <t>BusMinionshift</t>
   </si>
   <si>
     <t>icon_bus_2403</t>
   </si>
   <si>
-    <t>Prop_ScrewExbox</t>
+    <t>Prop_BusMinionshift</t>
   </si>
   <si>
     <t>BusAddspot</t>
   </si>
   <si>
     <t>icon_bus_2404</t>
+  </si>
+  <si>
+    <t>Prop_BusAddspot</t>
   </si>
   <si>
     <t>TripleEraser</t>
@@ -1239,8 +1245,8 @@
   <sheetPr/>
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1509,7 +1515,7 @@
         <v>50</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="1:4">
@@ -1517,13 +1523,13 @@
         <v>2403</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" ht="16.5" spans="1:4">
@@ -1531,13 +1537,13 @@
         <v>2404</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="1:4">
@@ -1545,13 +1551,13 @@
         <v>2501</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" ht="16.5" spans="1:4">
@@ -1559,13 +1565,13 @@
         <v>2502</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" ht="16.5" spans="1:4">
@@ -1573,13 +1579,13 @@
         <v>2503</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" ht="16.5" spans="1:4">
@@ -1587,13 +1593,13 @@
         <v>2504</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
